--- a/medicine/Enfance/Gillian_Philip/Gillian_Philip.xlsx
+++ b/medicine/Enfance/Gillian_Philip/Gillian_Philip.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gillian Philip, née en 1964  à Glasgow (Royaume-Uni), est une autrice de romans fantasy pour la jeunesse.
 Elle est notamment connue pour avoir participé aux sagas La Guerre des Clans et Survivants sous le pseudonyme d'Erin Hunter en compagnie de Victoria Holmes, Inbali Iserles, Cherith Baldry, Tui T. Sutherland, Kate Cary et Rosie Best.
